--- a/data/trans_bre/P16A13-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.296494193323154</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.897646779436289</v>
+        <v>-0.8976467794362897</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07952723809511675</v>
@@ -649,7 +649,7 @@
         <v>1.80724512510504</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1731613981612878</v>
+        <v>-0.1731613981612879</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.525997330196621</v>
+        <v>-2.38674787186098</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.960392524732076</v>
+        <v>-4.168069674330162</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.912519860091183</v>
+        <v>1.846228801430875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.512130910934556</v>
+        <v>-4.700720222294644</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7329265217753208</v>
+        <v>-0.6748974674213096</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4641681434643634</v>
+        <v>-0.4851815738674967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3181580990955616</v>
+        <v>0.4095488860662908</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6010439369819971</v>
+        <v>-0.5992319555067932</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.060610979538049</v>
+        <v>3.063027439948785</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.143642191132337</v>
+        <v>4.571333135942127</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.773322112292584</v>
+        <v>9.543026452166881</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.782097573098556</v>
+        <v>1.598879454398049</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.498472435073589</v>
+        <v>2.54857461415847</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.378046285225458</v>
+        <v>1.265069756450955</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5.753550313428438</v>
+        <v>5.740893804815689</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5472929316446713</v>
+        <v>0.5034408287354123</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.5790909664010503</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7092661352180136</v>
+        <v>0.7092661352180132</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08543064355574576</v>
@@ -749,7 +749,7 @@
         <v>-0.261062544320169</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2806098879837275</v>
+        <v>0.2806098879837273</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.184055281608384</v>
+        <v>-2.17529118965564</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.356455369927592</v>
+        <v>-2.046821604216113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.283005309119085</v>
+        <v>-2.394364880778336</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.614585679259538</v>
+        <v>-1.162755554703417</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4701776988985654</v>
+        <v>-0.4796629534495873</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.367960093167488</v>
+        <v>-0.3059929568642075</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7398679770683178</v>
+        <v>-0.7299251574860791</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4530965278787464</v>
+        <v>-0.361283928479088</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.669002918320364</v>
+        <v>2.778678533519783</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.468347900579556</v>
+        <v>3.746761900202726</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.063896297977245</v>
+        <v>1.126086974206048</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.490193165694993</v>
+        <v>2.828288634659589</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.145620182854598</v>
+        <v>1.275931136013454</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8744649833528704</v>
+        <v>0.9337052127321955</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7775143235104974</v>
+        <v>0.9580292168713503</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.699820271754067</v>
+        <v>1.966259278233207</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2740985842941591</v>
+        <v>-0.2379446396533705</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.363640292895675</v>
+        <v>-3.203897676449666</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.187165263061531</v>
+        <v>-2.170315630689336</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6469297327957307</v>
+        <v>0.8588992954513618</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2824851579733067</v>
+        <v>-0.3024254851532061</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6140141285439781</v>
+        <v>-0.5879683898800959</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7825504766980299</v>
+        <v>-0.762951963276707</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.04642337662338819</v>
+        <v>0.07880072066861221</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.723039249161812</v>
+        <v>4.864504076680168</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.327072578595987</v>
+        <v>3.387576523372871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.105811512356026</v>
+        <v>2.287019116779827</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.38222675854821</v>
+        <v>9.905657408585745</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>7.871799242349769</v>
+        <v>7.769939519563763</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.791417441125331</v>
+        <v>1.761761363893357</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.741839964368201</v>
+        <v>2.596340578266688</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.071012677455201</v>
+        <v>1.182384458536886</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.195660744903443</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.52796336208555</v>
+        <v>3.527963362085554</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.080391686499592</v>
@@ -949,7 +949,7 @@
         <v>0.7063200490833487</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5598519005105876</v>
+        <v>0.5598519005105884</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4498104974987823</v>
+        <v>-0.2418380612790337</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.702019063038459</v>
+        <v>2.483003673705958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.5972844566418011</v>
+        <v>-0.4567635165249921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.1099421851433061</v>
+        <v>0.09648707500889077</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2563865807766552</v>
+        <v>-0.2170920884970623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4515812409232914</v>
+        <v>0.5714172268568833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1344950264694448</v>
+        <v>-0.1128840816967138</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02625817347751138</v>
+        <v>-0.009927023407276621</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.558679009405321</v>
+        <v>4.593890372208802</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.954363779507327</v>
+        <v>8.737384154823543</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.174952499215356</v>
+        <v>6.987694408408067</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.551830121527055</v>
+        <v>6.771246753251065</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.268917867882323</v>
+        <v>4.781119476416757</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7.385645108895937</v>
+        <v>7.403021048102038</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.352215732428006</v>
+        <v>2.339734596028379</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.366697325731546</v>
+        <v>1.509905157843364</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.811528455322715</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.571144888143127</v>
+        <v>7.571144888143125</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.156031036535609</v>
@@ -1049,7 +1049,7 @@
         <v>1.261762725122326</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6053599189650306</v>
+        <v>0.6053599189650305</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.196826315090045</v>
+        <v>-0.8950400360870931</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.362922006453823</v>
+        <v>-5.890658270074515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.709146575868836</v>
+        <v>-0.6065664653319678</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.050130848228327</v>
+        <v>2.327852088608832</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4923797008281142</v>
+        <v>-0.4582232423406645</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6022486364820967</v>
+        <v>-0.5847181318686716</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.599507057002588</v>
+        <v>-0.4282391647801211</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1333352019065834</v>
+        <v>0.167727518730968</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.327415888203893</v>
+        <v>5.706366768441089</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.255402902881696</v>
+        <v>4.804948375240206</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.756433257770928</v>
+        <v>4.839072007343371</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.35141805197047</v>
+        <v>12.68870511921952</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6.894850047835964</v>
+        <v>10.58969986150317</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8410531217479129</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>9.490206335708416</v>
-      </c>
+        <v>0.8690385605272363</v>
+      </c>
+      <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>1.260610184386207</v>
+        <v>1.314116433785157</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1135,7 @@
         <v>-0.7708824000332622</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.197703305600765</v>
+        <v>2.197703305600757</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.304876866678768</v>
@@ -1149,7 +1147,7 @@
         <v>-0.2440875467697326</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1610130899717169</v>
+        <v>0.1610130899717163</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1158,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.2827939320522205</v>
+        <v>-0.2905049558322007</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.275585164442772</v>
+        <v>-5.148490486613963</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.484966638839155</v>
+        <v>-3.639588097927286</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.431318186340418</v>
+        <v>-1.933953562672714</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3062152317012167</v>
+        <v>-0.3133791577962258</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7147758916486143</v>
+        <v>-0.7184958286371375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7787503972586851</v>
+        <v>-0.7833653805843215</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1564659871042764</v>
+        <v>-0.124178749885855</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1190,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.549939366787708</v>
+        <v>5.51844384249601</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.040243919465697</v>
+        <v>1.968725008283931</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.056250704919418</v>
+        <v>2.106938879850843</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.177133117057027</v>
+        <v>6.438867060781245</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>7.634678625192699</v>
+        <v>6.102936917261266</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6233627689821358</v>
+        <v>0.6225527831097044</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.306359356334294</v>
+        <v>1.22618223909791</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5346737434187163</v>
+        <v>0.5661065528942387</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6128046431037755</v>
+        <v>-0.7614964189058363</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6314057564116695</v>
+        <v>-0.5505527077754813</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.142898286769085</v>
+        <v>-1.448375146617169</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6640894535157066</v>
+        <v>0.335584486950004</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1573864067912319</v>
+        <v>-0.1916874758092055</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1543051542991633</v>
+        <v>-0.162878871936533</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2654108810343136</v>
+        <v>-0.2911434724609805</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.0839256662291291</v>
+        <v>0.03109890415422304</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.623187816284125</v>
+        <v>3.609935885431135</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.112841368142347</v>
+        <v>3.947165937648649</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.436435205802636</v>
+        <v>3.392754056410303</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.529866384063224</v>
+        <v>5.441832359586241</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.771643924341199</v>
+        <v>1.610365907854423</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.643809150414252</v>
+        <v>1.552708310886933</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.221743549549628</v>
+        <v>1.238299117635735</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.243097852400125</v>
+        <v>1.204746627386637</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1335,7 @@
         <v>0.6870560548739385</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.4334828630783688</v>
+        <v>-0.4334828630783685</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.2520249149969042</v>
@@ -1349,7 +1347,7 @@
         <v>0.2609689288882055</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.1237792640611093</v>
+        <v>-0.1237792640611092</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1358,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.287564433559223</v>
+        <v>-2.389921231481459</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.5282947615503496</v>
+        <v>-0.536275544618717</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.19193440395074</v>
+        <v>-1.262692149966914</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.16761650371686</v>
+        <v>-2.094939779341449</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5968091068993173</v>
+        <v>-0.6163485785978102</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1869381926822409</v>
+        <v>-0.1844507412522988</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3635721949273845</v>
+        <v>-0.401908092676</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4686903802965264</v>
+        <v>-0.4665855496918469</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1390,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.067546346758326</v>
+        <v>0.8261241257360257</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.171847662178448</v>
+        <v>3.442253715551505</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.430681735946302</v>
+        <v>2.429155402204299</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9725053792314953</v>
+        <v>0.9705618195344452</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5764141077107349</v>
+        <v>0.3329928886042159</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.724773139487929</v>
+        <v>1.985144928029006</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.392392394285845</v>
+        <v>1.228928198074442</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3924036148119629</v>
+        <v>0.3716559731880995</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1435,7 @@
         <v>1.115891260467877</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2.13822317890466</v>
+        <v>2.138223178904662</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3597171495261837</v>
@@ -1449,7 +1447,7 @@
         <v>0.3796474096243371</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.3426783905205471</v>
+        <v>0.3426783905205475</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1458,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1322466058451585</v>
+        <v>0.04619597924819895</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.09646167000862876</v>
+        <v>0.2466450282248621</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05468154297793253</v>
+        <v>0.2258423595893305</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.042816438549482</v>
+        <v>1.12509667032792</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04071753886556172</v>
+        <v>0.01798437706846875</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01992348413433915</v>
+        <v>0.04706023491810588</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01066431851200995</v>
+        <v>0.06057905572928355</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.1502582928080681</v>
+        <v>0.1618026188759291</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1490,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.794480038594323</v>
+        <v>1.784333636567706</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.363016245620394</v>
+        <v>2.422808604290563</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.932151612809362</v>
+        <v>2.124847556335296</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.127119000947727</v>
+        <v>3.095086349342024</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8420494628715224</v>
+        <v>0.7807632170993936</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6474593224358268</v>
+        <v>0.6631916611077922</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7566354833377399</v>
+        <v>0.8634820660166855</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.5538411688150563</v>
+        <v>0.546337247212772</v>
       </c>
     </row>
     <row r="31">
